--- a/tables/crosstab/crosstab_gender/crosstab_safety_gender/Gender VS regulations.xlsx
+++ b/tables/crosstab/crosstab_gender/crosstab_safety_gender/Gender VS regulations.xlsx
@@ -435,19 +435,19 @@
         <v>65</v>
       </c>
       <c r="C2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E2">
-        <v>16.09</v>
+        <v>16.25</v>
       </c>
       <c r="F2">
-        <v>51.24</v>
+        <v>51.25</v>
       </c>
       <c r="G2">
-        <v>67.33</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,19 +458,19 @@
         <v>38</v>
       </c>
       <c r="C3">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E3">
-        <v>9.41</v>
+        <v>9.5</v>
       </c>
       <c r="F3">
-        <v>23.27</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>32.67</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,16 +481,16 @@
         <v>103</v>
       </c>
       <c r="C4">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D4">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E4">
-        <v>25.5</v>
+        <v>25.75</v>
       </c>
       <c r="F4">
-        <v>74.5</v>
+        <v>74.25</v>
       </c>
       <c r="G4">
         <v>100</v>
